--- a/medicine/Enfance/Dorothée_de_Monfreid/Dorothée_de_Monfreid.xlsx
+++ b/medicine/Enfance/Dorothée_de_Monfreid/Dorothée_de_Monfreid.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Doroth%C3%A9e_de_Monfreid</t>
+          <t>Dorothée_de_Monfreid</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dorothée de Monfreid est une dessinatrice et écrivaine française, née le 3 mai 1973 à Paris.
 Elle est notamment l'auteure de la bande dessinée Ada et Rosie, initialement publiée dans le quotidien Libération, l'illustratrice de la série Les P'tits philosophes, publiée dans Pomme d'Api jusqu'en 2022 et l'auteure de la série de livres pour enfants Les Toutous.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Doroth%C3%A9e_de_Monfreid</t>
+          <t>Dorothée_de_Monfreid</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dorothée de Monfreid est l'arrière-petite-fille de l'écrivain et aventurier Henry de Monfreid (1879-1974)[1]. Elle travaille et vit à Paris.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dorothée de Monfreid est l'arrière-petite-fille de l'écrivain et aventurier Henry de Monfreid (1879-1974). Elle travaille et vit à Paris.
 Diplômée de l'École nationale supérieure des arts décoratifs de Paris, elle est autrice de près de 70 albums pour la jeunesse, qu'elle écrit et illustre.
-Ses ouvrages sont publiés en France chez des éditeurs comme L'École des loisirs, Misma, Le Seuil, Gallimard, Hélium, Casterman, et traduits dans de nombreuses langues. Elle crée à L'École des loisirs, en 2012 Les Toutous : cette série de livres destinés aux jeunes enfants, qui met en scène une bande de chiens, compte 14 albums[2]. Le premier tome d'un nouveau projet jeunesse, Mari Moto, entre roman et bande dessinée, paraît aux éditions du Seuil en avril 2021.
-Elle est également autrice de bandes dessinées pour adultes avec Les Choses de l'amour (éditions Misma, 2020), et Ada &amp; Rosie, mauvais esprit de famille (Casterman, 2019) adapté d'un blog présenté sur le site du journal Libération de 2017 à 2019). En 2022 elle s'associe aux auteurs Kokopello, Morgan Navarro, Mathieu Sapin, Louison et Lara dans un projet à 6 mains, les Carnets de Campagne, aux éditions Dargaud / Seuil[3],[4].
+Ses ouvrages sont publiés en France chez des éditeurs comme L'École des loisirs, Misma, Le Seuil, Gallimard, Hélium, Casterman, et traduits dans de nombreuses langues. Elle crée à L'École des loisirs, en 2012 Les Toutous : cette série de livres destinés aux jeunes enfants, qui met en scène une bande de chiens, compte 14 albums. Le premier tome d'un nouveau projet jeunesse, Mari Moto, entre roman et bande dessinée, paraît aux éditions du Seuil en avril 2021.
+Elle est également autrice de bandes dessinées pour adultes avec Les Choses de l'amour (éditions Misma, 2020), et Ada &amp; Rosie, mauvais esprit de famille (Casterman, 2019) adapté d'un blog présenté sur le site du journal Libération de 2017 à 2019). En 2022 elle s'associe aux auteurs Kokopello, Morgan Navarro, Mathieu Sapin, Louison et Lara dans un projet à 6 mains, les Carnets de Campagne, aux éditions Dargaud / Seuil,.
 Son implication dans la bande dessinée l'a amenée à présider le Grand Jury Jeunesse du festival d'Angoulême en 2020.
 </t>
         </is>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Doroth%C3%A9e_de_Monfreid</t>
+          <t>Dorothée_de_Monfreid</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,25 +563,98 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bandes dessinées
-2006 : La Bande des bandits (dessin de Jean-Yves Duhoo), Lito
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2006 : La Bande des bandits (dessin de Jean-Yves Duhoo), Lito
 2019 : Ada &amp; Rosie, mauvais esprit de famille, Casterman BD
 2020 : Les petits philosophes (scénario de Sophie Furlaud), Mini BD Kids, Bayard
 2020 : Les choses de l'amour, Misma
 2021 : Mari Moto, Seule contre l'ouragan, Seuil Jeunesse
 2022 : La Petite Evasion, (scénario de Marzena Sowa), La Pastèque
 2022 : Carnets de Campagne (avec Mathieu Sapin, Kokopello, Morgan Navarro, Louison et Lara), coédition Dargaud / Éditions du Seuil, 240 p.
-2022 : Mari Moto, L'affaire des animaux disparus, Seuil Jeunesse
-Humour
-Le Manuel du docteur Schnock, Hélium, 2012
-Tendance Chat, Hélium, 2017
-Albums jeunesse
-Des souris dans les oreilles, l'école des loisirs, 2002
+2022 : Mari Moto, L'affaire des animaux disparus, Seuil Jeunesse</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dorothée_de_Monfreid</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doroth%C3%A9e_de_Monfreid</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Humour</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Manuel du docteur Schnock, Hélium, 2012
+Tendance Chat, Hélium, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dorothée_de_Monfreid</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doroth%C3%A9e_de_Monfreid</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Albums jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Des souris dans les oreilles, l'école des loisirs, 2002
 Mon toutimagier, Tourbillon, 2002
 Je mangerais bien un enfant (texte de Sylviane Donnio), l'école des loisirs, 2004
 Sept petits porcelets, Bréal Jeunesse, 2004 (réédité chez Gallimard Jeunesse en 2008)
 Et nous ?, l'école des loisirs, 2006
-Nuit noire, l'école des loisirs, 2009[5]
+Nuit noire, l'école des loisirs, 2009
 Le Cochon magique, l'école des loisirs, 2010
 Super sauvage (musique de Tony Truant), Gallimard Jeunesse Musique, 2011
 Tony Tiny Boy (texte de Vincent Cuvellier), Hélium, 2013
@@ -575,9 +662,43 @@
 L’Homme qui vivait comme un ours (texte de Vincent Cuvellier), Hélium, 2014
 Maximiam, l'école des loisirs, 2015
 Chien Bernard, l'école des loisirs, 2017
-Les Toutous à Paris (Les Toutous), l'école des loisirs, 2019
-Livres pour les tout-petits
-Le chien du lapin, Loulou &amp; Compagnie, 1999, 1re éd., 24 p. (lire en ligne)
+Les Toutous à Paris (Les Toutous), l'école des loisirs, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dorothée_de_Monfreid</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doroth%C3%A9e_de_Monfreid</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Livres pour les tout-petits</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le chien du lapin, Loulou &amp; Compagnie, 1999, 1re éd., 24 p. (lire en ligne)
 Si j'étais toute petite, Loulou &amp; Compagnie, 2000, 14 p. (EAN 9782211059800)
 Bonjour Catastrophe, l'école des loisirs, 2001
 Le Gâteau, l'école des loisirs, 2001
@@ -592,7 +713,7 @@
 Toutous tous fous (coffret de 4 livres), l'école des loisirs, 2013
 Pas envie, l'école des loisirs, 2013
 Qui craint le grand méchant escargot ?, l'école des loisirs, 2014
-Dodo, l'école des loisirs, 2014[6]
+Dodo, l'école des loisirs, 2014
 Attendez-moi, l'école des loisirs, 2015
 Tout tout sur les toutous, l'école des loisirs, 2015
 Ma photo, l'école des loisirs, 2016
@@ -602,48 +723,118 @@
 Le Meilleur resto du monde, l'école des loisirs, 2018
 Docteur Popov, l'école des loisirs, 2020
 Mystère dans le grenier, l'école des loisirs, 2021
-Mon cahier de jeux Les Toutous, l'école des loisirs récréative, 2022
-Romans jeunesse
-Croquepied, L’École des loisirs, 2002
+Mon cahier de jeux Les Toutous, l'école des loisirs récréative, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dorothée_de_Monfreid</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doroth%C3%A9e_de_Monfreid</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Croquepied, L’École des loisirs, 2002
 Voyage au pays des gâteaux, L’École des loisirs, 2009
-La Boîte à pleurs, L’École des loisirs, 2010
-Rubriques de magazine jeunesse
-Rubrique Fablabla, magazine Capsule Cosmique, Milan Presse, 2004-2006
+La Boîte à pleurs, L’École des loisirs, 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dorothée_de_Monfreid</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doroth%C3%A9e_de_Monfreid</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Rubriques de magazine jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Rubrique Fablabla, magazine Capsule Cosmique, Milan Presse, 2004-2006
 Rubrique Les P’tits Philosophes, textes de Sophie Furlaud, magazine Pomme d’Api, Bayard Presse, de 2005 à 2022</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Doroth%C3%A9e_de_Monfreid</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dorothée_de_Monfreid</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Doroth%C3%A9e_de_Monfreid</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2011 : Coup de cœur Charles Cros pour Super Sauvage[7]
-2011 : Clef d'Or Res Musica pour Super Sauvage[8]
-2017 : prix Bernard Versele (1 chouette) pour Dodo[9]
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2011 : Coup de cœur Charles Cros pour Super Sauvage
+2011 : Clef d'Or Res Musica pour Super Sauvage
+2017 : prix Bernard Versele (1 chouette) pour Dodo
 2018 : Mention jeunesse de la Société centrale canine pour Chien Bernard
-2022 : Sélection Prix Sorcières[10] Catégorie Carrément passionnant mini, pour Mari Moto seule contre l’ouragan
+2022 : Sélection Prix Sorcières Catégorie Carrément passionnant mini, pour Mari Moto seule contre l’ouragan
 2022 : prix Livrentête pour Mari Moto, seule contre l'ouragan (sélection à partir de 9 ans)*
 2023 :  prix des écoles d'Angoulême 2023 pour La Petite évasion, avec Marzena Sowa</t>
         </is>
